--- a/Assignment4_correzioni/Tab_results.xlsx
+++ b/Assignment4_correzioni/Tab_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39331\githubFE\FE-group-16\Assignment4_correzioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7CEB9E-1437-4031-84BC-10D3E63DB642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8ED347-9D50-4A4A-AA21-6DFBFE9866BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{57A4C2C7-9865-4C79-898B-7150B7B2966C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>39331</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{2138242A-D4E9-407C-9D11-70AA55D48DF4}">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{2138242A-D4E9-407C-9D11-70AA55D48DF4}">
       <text>
         <r>
           <rPr>
@@ -70,16 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>0.068613</t>
-  </si>
-  <si>
-    <t>0.0691624</t>
-  </si>
-  <si>
-    <t>0.0545942</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>nu = 1</t>
   </si>
@@ -115,6 +106,30 @@
   </si>
   <si>
     <t>1.3 PCA</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>VaR_H</t>
+  </si>
+  <si>
+    <t>ES_H</t>
+  </si>
+  <si>
+    <t>VaR_BS</t>
+  </si>
+  <si>
+    <t>ES_BS</t>
+  </si>
+  <si>
+    <t>VAR_WH</t>
+  </si>
+  <si>
+    <t>ES_WH</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -226,16 +241,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -249,19 +258,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -601,366 +616,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE82524A-A962-4174-9B93-78B929FC834D}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.36328125" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.54296875" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.26953125" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.90625" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.36328125" customWidth="1"/>
+    <col min="21" max="21" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.54296875" customWidth="1"/>
+    <col min="24" max="25" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="13">
+        <v>2</v>
+      </c>
+      <c r="V1" s="13"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="13"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="15"/>
+    </row>
+    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2">
+      <c r="G3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2">
+      <c r="Y3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8">
+        <v>5.4537000000000002E-2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>6.8815000000000001E-2</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>5.4397000000000001E-2</v>
+      </c>
+      <c r="R4" s="8">
+        <v>6.8695000000000006E-2</v>
+      </c>
+      <c r="S4" s="8">
+        <v>5.4630999999999999E-2</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8">
+        <v>1265.55</v>
+      </c>
+      <c r="V4" s="11">
+        <v>30.24</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8">
+        <v>19070983</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>18334933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="O5">
+        <v>5.4822999999999997E-2</v>
+      </c>
+      <c r="P5">
+        <v>6.9162399999999999E-2</v>
+      </c>
+      <c r="Q5">
+        <v>5.4683900000000001E-2</v>
+      </c>
+      <c r="R5">
+        <v>6.9044599999999998E-2</v>
+      </c>
+      <c r="S5">
+        <v>5.4770800000000001E-2</v>
+      </c>
+      <c r="U5">
+        <v>1723.89</v>
+      </c>
+      <c r="V5">
+        <v>356.12</v>
+      </c>
+      <c r="X5">
+        <v>19218870</v>
+      </c>
+      <c r="Y5">
+        <v>19200988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>12</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="B6" s="8">
+        <v>563223.31999999995</v>
+      </c>
+      <c r="C6" s="8">
+        <v>787977.23</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>96039.47</v>
+      </c>
+      <c r="F6" s="8">
+        <v>143630.82999999999</v>
+      </c>
+      <c r="G6" s="8">
+        <v>90502.7</v>
+      </c>
+      <c r="H6" s="8">
+        <v>140995.67000000001</v>
+      </c>
+      <c r="I6" s="8">
+        <v>92035.63</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
+        <v>1.5937E-2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1.7469999999999999E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.9219E-2</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
+        <v>5.7868999999999997E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>6.5087699999999998E-2</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>5.8165000000000001E-2</v>
+      </c>
+      <c r="R6" s="8">
+        <v>6.5199599999999996E-2</v>
+      </c>
+      <c r="S6" s="8">
+        <v>5.4632E-2</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8">
+        <v>1494.32</v>
+      </c>
+      <c r="V6" s="8">
+        <v>626.30999999999995</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
+        <v>19411862</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>19424418</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>6</v>
+      <c r="B7" s="10">
+        <v>561412.03</v>
+      </c>
+      <c r="C7" s="10">
+        <v>785964.62</v>
+      </c>
+      <c r="E7" s="10">
+        <v>320174.51</v>
+      </c>
+      <c r="F7" s="10">
+        <v>441490.15</v>
+      </c>
+      <c r="G7" s="10">
+        <v>329796.2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>447353.95</v>
+      </c>
+      <c r="I7" s="10">
+        <v>302429.28000000003</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1.566E-2</v>
+      </c>
+      <c r="L7" s="10">
+        <v>2.1260000000000001E-2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1.8735000000000002E-2</v>
+      </c>
+      <c r="O7" s="10">
+        <v>5.2877E-2</v>
+      </c>
+      <c r="P7" s="10">
+        <v>6.7122200000000007E-2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>5.2981E-2</v>
+      </c>
+      <c r="R7" s="10">
+        <v>6.7244999999999999E-2</v>
+      </c>
+      <c r="S7" s="10">
+        <v>5.4646E-2</v>
+      </c>
+      <c r="U7">
+        <v>1804.64</v>
+      </c>
+      <c r="V7">
+        <v>504.08</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>16602148</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11">
-        <v>5.4537000000000002E-2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>6.8815000000000001E-2</v>
-      </c>
-      <c r="D4" s="11">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>563223.31999999995</v>
+      </c>
+      <c r="C8" s="8">
+        <v>787977.23</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>94610.75</v>
+      </c>
+      <c r="F8" s="8">
+        <v>141276.87</v>
+      </c>
+      <c r="G8" s="8">
+        <v>95521.53</v>
+      </c>
+      <c r="H8" s="8">
+        <v>177225.34</v>
+      </c>
+      <c r="I8" s="8">
+        <v>89558.42</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
+        <v>1.5935999999999999E-2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2.1544000000000001E-2</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1.9219E-2</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8">
+        <v>5.4530000000000002E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>6.8814E-2</v>
+      </c>
+      <c r="Q8" s="8">
         <v>5.4397000000000001E-2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="R8" s="8">
+        <v>6.8694000000000005E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>5.4630999999999999E-2</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="11">
+        <v>51407.86</v>
+      </c>
+      <c r="V8" s="11">
+        <v>1437823.16</v>
+      </c>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8">
+        <v>19122064</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>16795775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <v>5.79E-2</v>
+      </c>
+      <c r="P9" s="10">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="Q9">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="R9" s="10">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="S9">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="U9" s="10">
+        <v>783.23</v>
+      </c>
+      <c r="V9">
+        <v>459.49</v>
+      </c>
+      <c r="X9">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="Y9">
+        <v>0.64729999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8">
+        <v>5.4530000000000002E-2</v>
+      </c>
+      <c r="P10" s="8">
+        <v>6.8809999999999996E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>5.4397000000000001E-2</v>
+      </c>
+      <c r="R10" s="8">
+        <v>6.8694000000000005E-2</v>
+      </c>
+      <c r="S10" s="8">
+        <v>5.46315E-2</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8">
+        <v>1496.16</v>
+      </c>
+      <c r="V10" s="8">
+        <v>628.08000000000004</v>
+      </c>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8">
+        <v>19809764</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>19726316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>16</v>
+      </c>
+      <c r="B12" s="12">
+        <v>563223.31999999995</v>
+      </c>
+      <c r="C12" s="12">
+        <v>787977.23</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>96039.47</v>
+      </c>
+      <c r="F12" s="12">
+        <v>143630.82999999999</v>
+      </c>
+      <c r="G12" s="12">
+        <v>100759.3</v>
+      </c>
+      <c r="H12" s="12">
+        <v>174036.41</v>
+      </c>
+      <c r="I12" s="12">
+        <v>92035.63</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
+        <v>1.5937E-2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2.11544E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1.9219E-2</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>5.4536000000000001E-2</v>
+      </c>
+      <c r="P12" s="12">
+        <v>6.8814E-2</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>5.4397000000000001E-2</v>
+      </c>
+      <c r="R12" s="12">
         <v>6.8695000000000006E-2</v>
       </c>
-      <c r="F4" s="11">
-        <v>5.4630999999999999E-2</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
-        <v>1265.55</v>
-      </c>
-      <c r="I4" s="15">
-        <v>30.24</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
-        <v>19070983</v>
-      </c>
-      <c r="L4" s="15">
-        <v>18334933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>5.4822999999999997E-2</v>
-      </c>
-      <c r="C5">
-        <v>6.9162399999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.4683900000000001E-2</v>
-      </c>
-      <c r="E5">
-        <v>6.9044599999999998E-2</v>
-      </c>
-      <c r="F5">
-        <v>5.4770800000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>1723.89</v>
-      </c>
-      <c r="I5">
-        <v>356.12</v>
-      </c>
-      <c r="K5">
-        <v>19218870</v>
-      </c>
-      <c r="L5">
-        <v>19200988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11">
-        <v>5.7868999999999997E-2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>6.5087699999999998E-2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>5.8165000000000001E-2</v>
-      </c>
-      <c r="E6" s="11">
-        <v>6.5199599999999996E-2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>5.4632E-2</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
-        <v>1494.32</v>
-      </c>
-      <c r="I6" s="11">
-        <v>626.30999999999995</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
-        <v>19411862</v>
-      </c>
-      <c r="L6" s="11">
-        <v>19424418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14">
-        <v>5.2877E-2</v>
-      </c>
-      <c r="C7" s="14">
-        <v>6.7122200000000007E-2</v>
-      </c>
-      <c r="D7" s="14">
-        <v>5.2981E-2</v>
-      </c>
-      <c r="E7" s="14">
-        <v>6.7244999999999999E-2</v>
-      </c>
-      <c r="F7" s="14">
-        <v>5.4646E-2</v>
-      </c>
-      <c r="H7">
-        <v>1804.64</v>
-      </c>
-      <c r="I7">
-        <v>504.08</v>
-      </c>
-      <c r="L7" s="14">
-        <v>16602148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11">
-        <v>5.4530000000000002E-2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6.8814E-2</v>
-      </c>
-      <c r="D8" s="11">
-        <v>5.4397000000000001E-2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>6.8694000000000005E-2</v>
-      </c>
-      <c r="F8" s="11">
-        <v>5.4630999999999999E-2</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="15">
-        <v>51407.86</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1437823.16</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
-        <v>19122064</v>
-      </c>
-      <c r="L8" s="15">
-        <v>16795775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>5.79E-2</v>
-      </c>
-      <c r="C9" s="14">
-        <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="D9">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="E9" s="14">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="F9">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="H9" s="14">
-        <v>783.23</v>
-      </c>
-      <c r="I9">
-        <v>459.49</v>
-      </c>
-      <c r="K9">
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="L9">
-        <v>0.64729999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>17</v>
-      </c>
-      <c r="B10" s="11">
-        <v>5.4530000000000002E-2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>6.8809999999999996E-2</v>
-      </c>
-      <c r="D10" s="11">
-        <v>5.4397000000000001E-2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>6.8694000000000005E-2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>5.46315E-2</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
-        <v>1496.16</v>
-      </c>
-      <c r="I10" s="11">
-        <v>628.08000000000004</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
-        <v>19809764</v>
-      </c>
-      <c r="L10" s="11">
-        <v>19726316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>16</v>
-      </c>
-      <c r="B12" s="16">
-        <v>5.4536000000000001E-2</v>
-      </c>
-      <c r="C12" s="16">
-        <v>6.8814E-2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>5.4397000000000001E-2</v>
-      </c>
-      <c r="E12" s="16">
-        <v>6.8695000000000006E-2</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="S12" s="12">
         <v>5.4631529999999998E-2</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16">
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12">
         <v>0.64780000000000004</v>
       </c>
-      <c r="L12" s="16">
+      <c r="Y12" s="12">
         <v>0.64790000000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="9">
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:I2"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Assignment4_correzioni/Tab_results.xlsx
+++ b/Assignment4_correzioni/Tab_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39331\githubFE\FE-group-16\Assignment4_correzioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8ED347-9D50-4A4A-AA21-6DFBFE9866BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E74A50-F901-4DA0-BFFC-F977470941D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{57A4C2C7-9865-4C79-898B-7150B7B2966C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{57A4C2C7-9865-4C79-898B-7150B7B2966C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Marks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
     <author>39331</author>
   </authors>
   <commentList>
-    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{2138242A-D4E9-407C-9D11-70AA55D48DF4}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{BC49AD64-85F3-4E1A-8560-A83A059894E1}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Simple Returns</t>
+Simple returns</t>
         </r>
       </text>
     </comment>
@@ -70,13 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
-  <si>
-    <t>nu = 1</t>
-  </si>
-  <si>
-    <t>nu = 5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>MC</t>
   </si>
@@ -130,13 +125,49 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Wheights</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>EX_weights</t>
+  </si>
+  <si>
+    <t>n = 1</t>
+  </si>
+  <si>
+    <t>n = 5</t>
+  </si>
+  <si>
+    <t>FINAL MARKS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +203,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,7 +269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -264,7 +321,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,9 +334,28 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -616,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE82524A-A962-4174-9B93-78B929FC834D}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,573 +721,1036 @@
     <col min="21" max="21" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.54296875" customWidth="1"/>
-    <col min="24" max="25" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="13">
+      <c r="B1" s="14">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="E1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="K1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="O1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="13">
+      <c r="U1" s="14">
         <v>2</v>
       </c>
-      <c r="V1" s="13"/>
+      <c r="V1" s="14"/>
       <c r="W1" s="5"/>
-      <c r="X1" s="13">
+      <c r="X1" s="14">
         <v>3</v>
       </c>
-      <c r="Y1" s="13"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="5"/>
+      <c r="O2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="12"/>
       <c r="T2" s="5"/>
       <c r="U2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="Y2" s="16"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="15"/>
-    </row>
-    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="17">
+        <v>563223.31999999995</v>
+      </c>
+      <c r="C4" s="17">
+        <v>787977.23</v>
+      </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="E4" s="17">
+        <v>96039.47</v>
+      </c>
+      <c r="F4" s="17">
+        <v>143630.82999999999</v>
+      </c>
+      <c r="G4" s="17">
+        <v>90502.7</v>
+      </c>
+      <c r="H4" s="17">
+        <v>140995.67000000001</v>
+      </c>
+      <c r="I4" s="17">
+        <v>92035.63</v>
+      </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="K4" s="17">
+        <v>1.5937E-2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1.7469999999999999E-2</v>
+      </c>
+      <c r="M4" s="17">
+        <v>1.9219E-2</v>
+      </c>
       <c r="N4" s="8"/>
-      <c r="O4" s="8">
-        <v>5.4537000000000002E-2</v>
-      </c>
-      <c r="P4" s="8">
-        <v>6.8815000000000001E-2</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>5.4397000000000001E-2</v>
-      </c>
-      <c r="R4" s="8">
-        <v>6.8695000000000006E-2</v>
-      </c>
-      <c r="S4" s="8">
-        <v>5.4630999999999999E-2</v>
+      <c r="O4" s="18">
+        <v>5.7868999999999997E-2</v>
+      </c>
+      <c r="P4" s="18">
+        <v>6.5087699999999998E-2</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>5.8165000000000001E-2</v>
+      </c>
+      <c r="R4" s="18">
+        <v>6.5199599999999996E-2</v>
+      </c>
+      <c r="S4" s="18">
+        <v>5.4632E-2</v>
       </c>
       <c r="T4" s="8"/>
-      <c r="U4" s="8">
-        <v>1265.55</v>
-      </c>
-      <c r="V4" s="11">
-        <v>30.24</v>
+      <c r="U4" s="17">
+        <v>1494.32</v>
+      </c>
+      <c r="V4" s="18">
+        <v>626.30999999999995</v>
       </c>
       <c r="W4" s="8"/>
-      <c r="X4" s="8">
-        <v>19070983</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>18334933</v>
+      <c r="X4" s="17">
+        <v>19411862</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>19424418</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>5.4822999999999997E-2</v>
-      </c>
-      <c r="P5">
-        <v>6.9162399999999999E-2</v>
-      </c>
-      <c r="Q5">
-        <v>5.4683900000000001E-2</v>
-      </c>
-      <c r="R5">
-        <v>6.9044599999999998E-2</v>
-      </c>
-      <c r="S5">
-        <v>5.4770800000000001E-2</v>
-      </c>
-      <c r="U5">
-        <v>1723.89</v>
-      </c>
-      <c r="V5">
-        <v>356.12</v>
-      </c>
-      <c r="X5">
-        <v>19218870</v>
-      </c>
-      <c r="Y5">
-        <v>19200988</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="10">
+        <v>561412.03</v>
+      </c>
+      <c r="C5" s="10">
+        <v>785964.62</v>
+      </c>
+      <c r="E5" s="10">
+        <v>320174.51</v>
+      </c>
+      <c r="F5" s="10">
+        <v>441490.15</v>
+      </c>
+      <c r="G5" s="10">
+        <v>329796.2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>447353.95</v>
+      </c>
+      <c r="I5" s="10">
+        <v>302429.28000000003</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1.566E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>2.1260000000000001E-2</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1.8735000000000002E-2</v>
+      </c>
+      <c r="O5" s="10">
+        <v>5.2877E-2</v>
+      </c>
+      <c r="P5" s="10">
+        <v>6.7122200000000007E-2</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>5.2981E-2</v>
+      </c>
+      <c r="R5" s="10">
+        <v>6.7244999999999999E-2</v>
+      </c>
+      <c r="S5" s="10">
+        <v>5.4646E-2</v>
+      </c>
+      <c r="U5" s="25">
+        <v>1804.64</v>
+      </c>
+      <c r="V5" s="26">
+        <v>504.08</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>16602148</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="B6" s="17">
         <v>563223.31999999995</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="17">
         <v>787977.23</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="8">
+      <c r="E6" s="18">
+        <v>94610.75</v>
+      </c>
+      <c r="F6" s="18">
+        <v>141276.87</v>
+      </c>
+      <c r="G6" s="18">
+        <v>95521.53</v>
+      </c>
+      <c r="H6" s="18">
+        <v>177225.34</v>
+      </c>
+      <c r="I6" s="18">
+        <v>89558.42</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="17">
+        <v>1.5935999999999999E-2</v>
+      </c>
+      <c r="L6" s="17">
+        <v>2.1544000000000001E-2</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1.9219E-2</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="17">
+        <v>5.4530000000000002E-2</v>
+      </c>
+      <c r="P6" s="17">
+        <v>6.8814E-2</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>5.4397000000000001E-2</v>
+      </c>
+      <c r="R6" s="17">
+        <v>6.8694000000000005E-2</v>
+      </c>
+      <c r="S6" s="17">
+        <v>5.4630999999999999E-2</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="11">
+        <v>51407.86</v>
+      </c>
+      <c r="V6" s="11">
+        <v>1437823.16</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="17">
+        <v>19122064</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>16795775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>16</v>
+      </c>
+      <c r="B8" s="24">
+        <v>563223.31999999995</v>
+      </c>
+      <c r="C8" s="24">
+        <v>787977.23</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24">
         <v>96039.47</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F8" s="24">
         <v>143630.82999999999</v>
       </c>
-      <c r="G6" s="8">
-        <v>90502.7</v>
-      </c>
-      <c r="H6" s="8">
-        <v>140995.67000000001</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="G8" s="24">
+        <v>100759.3</v>
+      </c>
+      <c r="H8" s="24">
+        <v>174036.41</v>
+      </c>
+      <c r="I8" s="24">
         <v>92035.63</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
+      <c r="J8" s="24"/>
+      <c r="K8" s="24">
         <v>1.5937E-2</v>
       </c>
-      <c r="L6" s="11">
-        <v>1.7469999999999999E-2</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="L8" s="24">
+        <v>2.1544000000000001E-2</v>
+      </c>
+      <c r="M8" s="24">
         <v>1.9219E-2</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8">
-        <v>5.7868999999999997E-2</v>
-      </c>
-      <c r="P6" s="8">
-        <v>6.5087699999999998E-2</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>5.8165000000000001E-2</v>
-      </c>
-      <c r="R6" s="8">
-        <v>6.5199599999999996E-2</v>
-      </c>
-      <c r="S6" s="8">
-        <v>5.4632E-2</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8">
-        <v>1494.32</v>
-      </c>
-      <c r="V6" s="8">
-        <v>626.30999999999995</v>
-      </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8">
-        <v>19411862</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>19424418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10">
-        <v>561412.03</v>
-      </c>
-      <c r="C7" s="10">
-        <v>785964.62</v>
-      </c>
-      <c r="E7" s="10">
-        <v>320174.51</v>
-      </c>
-      <c r="F7" s="10">
-        <v>441490.15</v>
-      </c>
-      <c r="G7" s="10">
-        <v>329796.2</v>
-      </c>
-      <c r="H7" s="10">
-        <v>447353.95</v>
-      </c>
-      <c r="I7" s="10">
-        <v>302429.28000000003</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1.566E-2</v>
-      </c>
-      <c r="L7" s="10">
-        <v>2.1260000000000001E-2</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1.8735000000000002E-2</v>
-      </c>
-      <c r="O7" s="10">
-        <v>5.2877E-2</v>
-      </c>
-      <c r="P7" s="10">
-        <v>6.7122200000000007E-2</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>5.2981E-2</v>
-      </c>
-      <c r="R7" s="10">
-        <v>6.7244999999999999E-2</v>
-      </c>
-      <c r="S7" s="10">
-        <v>5.4646E-2</v>
-      </c>
-      <c r="U7">
-        <v>1804.64</v>
-      </c>
-      <c r="V7">
-        <v>504.08</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>16602148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8">
-        <v>563223.31999999995</v>
-      </c>
-      <c r="C8" s="8">
-        <v>787977.23</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>94610.75</v>
-      </c>
-      <c r="F8" s="8">
-        <v>141276.87</v>
-      </c>
-      <c r="G8" s="8">
-        <v>95521.53</v>
-      </c>
-      <c r="H8" s="8">
-        <v>177225.34</v>
-      </c>
-      <c r="I8" s="8">
-        <v>89558.42</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
-        <v>1.5935999999999999E-2</v>
-      </c>
-      <c r="L8" s="8">
-        <v>2.1544000000000001E-2</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1.9219E-2</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8">
-        <v>5.4530000000000002E-2</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="N8" s="24"/>
+      <c r="O8" s="24">
+        <v>5.4536000000000001E-2</v>
+      </c>
+      <c r="P8" s="24">
         <v>6.8814E-2</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="24">
         <v>5.4397000000000001E-2</v>
       </c>
-      <c r="R8" s="8">
-        <v>6.8694000000000005E-2</v>
-      </c>
-      <c r="S8" s="8">
-        <v>5.4630999999999999E-2</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="11">
-        <v>51407.86</v>
-      </c>
-      <c r="V8" s="11">
-        <v>1437823.16</v>
-      </c>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8">
-        <v>19122064</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>16795775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>15</v>
-      </c>
-      <c r="O9">
-        <v>5.79E-2</v>
-      </c>
-      <c r="P9" s="10">
-        <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="Q9">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="R9" s="10">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="S9">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="U9" s="10">
-        <v>783.23</v>
-      </c>
-      <c r="V9">
-        <v>459.49</v>
-      </c>
-      <c r="X9">
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="Y9">
-        <v>0.64729999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8">
-        <v>5.4530000000000002E-2</v>
-      </c>
-      <c r="P10" s="8">
-        <v>6.8809999999999996E-2</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>5.4397000000000001E-2</v>
-      </c>
-      <c r="R10" s="8">
-        <v>6.8694000000000005E-2</v>
-      </c>
-      <c r="S10" s="8">
-        <v>5.46315E-2</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8">
-        <v>1496.16</v>
-      </c>
-      <c r="V10" s="8">
-        <v>628.08000000000004</v>
-      </c>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8">
-        <v>19809764</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>19726316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>16</v>
-      </c>
-      <c r="B12" s="12">
-        <v>563223.31999999995</v>
-      </c>
-      <c r="C12" s="12">
-        <v>787977.23</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
-        <v>96039.47</v>
-      </c>
-      <c r="F12" s="12">
-        <v>143630.82999999999</v>
-      </c>
-      <c r="G12" s="12">
-        <v>100759.3</v>
-      </c>
-      <c r="H12" s="12">
-        <v>174036.41</v>
-      </c>
-      <c r="I12" s="12">
-        <v>92035.63</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12">
-        <v>1.5937E-2</v>
-      </c>
-      <c r="L12" s="12">
-        <v>2.11544E-2</v>
-      </c>
-      <c r="M12" s="12">
-        <v>1.9219E-2</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12">
-        <v>5.4536000000000001E-2</v>
-      </c>
-      <c r="P12" s="12">
-        <v>6.8814E-2</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>5.4397000000000001E-2</v>
-      </c>
-      <c r="R12" s="12">
+      <c r="R8" s="24">
         <v>6.8695000000000006E-2</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S8" s="24">
         <v>5.4631529999999998E-2</v>
       </c>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12">
-        <v>0.64780000000000004</v>
-      </c>
-      <c r="Y12" s="12">
-        <v>0.64790000000000003</v>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24">
+        <v>4400.22</v>
+      </c>
+      <c r="V8" s="24">
+        <v>4155.8900000000003</v>
+      </c>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24">
+        <v>19436118</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>19438069</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="E1:I2"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCA58D-DBE0-4351-956D-8D617872F662}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="19">
+        <v>12</v>
+      </c>
+      <c r="F1" s="19">
+        <v>13</v>
+      </c>
+      <c r="G1" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="21">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>6.5</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13">
+        <f>+(E2*$D$2 + E3*$D$3 +E4*$D$4) / SUM($D$2:$D$4)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F5" s="13">
+        <f>+(F2*$D$2 + F3*$D$3 +F4*$D$4) / SUM($D$2:$D$4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="13">
+        <f>+(G2*$D$2 + G3*$D$3 +G4*$D$4) / SUM($D$2:$D$4)</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13">
+        <f>+(E6*$D$2 + E7*$D$3 +E8*$D$4) / SUM($D$2:$D$4)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" ref="F9:G9" si="0">+(F6*$D$2 + F7*$D$3 +F8*$D$4) / SUM($D$2:$D$4)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6.5</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" ref="E13:G13" si="1">+(E10*$D$2 + E11*$D$3 +E12*$D$4) / SUM($D$2:$D$4)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="21">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="27">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" ref="E17:G17" si="2">+(E14*$D$2 + E15*$D$3 +E16*$D$4) / SUM($D$2:$D$4)</f>
+        <v>6.2</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="2"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="21">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" ref="E21" si="3">+(E18*$D$2 + E19*$D$3 +E20*$D$4) / SUM($D$2:$D$4)</f>
+        <v>8.4</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" ref="F21" si="4">+(F18*$D$2 + F19*$D$3 +F20*$D$4) / SUM($D$2:$D$4)</f>
+        <v>8.6</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" ref="G21" si="5">+(G18*$D$2 + G19*$D$3 +G20*$D$4) / SUM($D$2:$D$4)</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="21">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" ref="E25" si="6">+(E22*$D$2 + E23*$D$3 +E24*$D$4) / SUM($D$2:$D$4)</f>
+        <v>7.6</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" ref="F25" si="7">+(F22*$D$2 + F23*$D$3 +F24*$D$4) / SUM($D$2:$D$4)</f>
+        <v>7.6</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" ref="G25" si="8">+(G22*$D$2 + G23*$D$3 +G24*$D$4) / SUM($D$2:$D$4)</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="20">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="21">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="21">
+        <f>+SUM(B3,B7,B11,B15,B19,B23,B27)</f>
+        <v>10</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" ref="E29" si="9">+(E26*$D$2 + E27*$D$3 +E28*$D$4) / SUM($D$2:$D$4)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" ref="F29" si="10">+(F26*$D$2 + F27*$D$3 +F28*$D$4) / SUM($D$2:$D$4)</f>
+        <v>4.2</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" ref="G29" si="11">+(G26*$D$2 + G27*$D$3 +G28*$D$4) / SUM($D$2:$D$4)</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="24">
+        <f>+(E5*$B$3+E9*$B$7+E13*$B$11+E17*$B$15+E21*$B$19+E25*$B$23+E29*$B$27) /$B$29</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" ref="F32:G32" si="12">+(F5*$B$3+F9*$B$7+F13*$B$11+F17*$B$15+F21*$B$19+F25*$B$23+F29*$B$27) /$B$29</f>
+        <v>5.96</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="12"/>
+        <v>6.9599999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E33" s="22">
+        <f>+E32/2</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" ref="F33:G33" si="13">+F32/2</f>
+        <v>2.98</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="13"/>
+        <v>3.4799999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment4_correzioni/Tab_results.xlsx
+++ b/Assignment4_correzioni/Tab_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39331\githubFE\FE-group-16\Assignment4_correzioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E74A50-F901-4DA0-BFFC-F977470941D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA9031-5B79-45D1-9CD2-147497B67F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{57A4C2C7-9865-4C79-898B-7150B7B2966C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{57A4C2C7-9865-4C79-898B-7150B7B2966C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -325,21 +325,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,6 +344,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE82524A-A962-4174-9B93-78B929FC834D}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,63 +726,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14">
+      <c r="B1" s="26">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="14">
+      <c r="U1" s="26">
         <v>2</v>
       </c>
-      <c r="V1" s="14"/>
+      <c r="V1" s="26"/>
       <c r="W1" s="5"/>
-      <c r="X1" s="14">
+      <c r="X1" s="26">
         <v>3</v>
       </c>
-      <c r="Y1" s="14"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="15"/>
+      <c r="R2" s="27"/>
       <c r="S2" s="12"/>
       <c r="T2" s="5"/>
       <c r="U2" s="6" t="s">
@@ -792,10 +792,10 @@
         <v>6</v>
       </c>
       <c r="W2" s="5"/>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="16"/>
+      <c r="Y2" s="25"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -866,66 +866,66 @@
       <c r="A4" s="3">
         <v>12</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>563223.31999999995</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>787977.23</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>96039.47</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>143630.82999999999</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>90502.7</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>140995.67000000001</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>92035.63</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>1.5937E-2</v>
       </c>
       <c r="L4" s="11">
         <v>1.7469999999999999E-2</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <v>1.9219E-2</v>
       </c>
       <c r="N4" s="8"/>
-      <c r="O4" s="18">
+      <c r="O4" s="15">
         <v>5.7868999999999997E-2</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="15">
         <v>6.5087699999999998E-2</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="15">
         <v>5.8165000000000001E-2</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="15">
         <v>6.5199599999999996E-2</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="15">
         <v>5.4632E-2</v>
       </c>
       <c r="T4" s="8"/>
-      <c r="U4" s="17">
+      <c r="U4" s="14">
         <v>1494.32</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="15">
         <v>626.30999999999995</v>
       </c>
       <c r="W4" s="8"/>
-      <c r="X4" s="17">
+      <c r="X4" s="14">
         <v>19411862</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="15">
         <v>19424418</v>
       </c>
     </row>
@@ -978,10 +978,10 @@
       <c r="S5" s="10">
         <v>5.4646E-2</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="21">
         <v>1804.64</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="22">
         <v>504.08</v>
       </c>
       <c r="Y5" s="10">
@@ -992,52 +992,52 @@
       <c r="A6" s="3">
         <v>14</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>563223.31999999995</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>787977.23</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>94610.75</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <v>141276.87</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <v>95521.53</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <v>177225.34</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <v>89558.42</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="17">
+      <c r="K6" s="14">
         <v>1.5935999999999999E-2</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="14">
         <v>2.1544000000000001E-2</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="14">
         <v>1.9219E-2</v>
       </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="17">
+      <c r="O6" s="14">
         <v>5.4530000000000002E-2</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="14">
         <v>6.8814E-2</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="14">
         <v>5.4397000000000001E-2</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="14">
         <v>6.8694000000000005E-2</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="14">
         <v>5.4630999999999999E-2</v>
       </c>
       <c r="T6" s="8"/>
@@ -1048,7 +1048,7 @@
         <v>1437823.16</v>
       </c>
       <c r="W6" s="8"/>
-      <c r="X6" s="17">
+      <c r="X6" s="14">
         <v>19122064</v>
       </c>
       <c r="Y6" s="11">
@@ -1059,66 +1059,66 @@
       <c r="A8" s="4">
         <v>16</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>563223.31999999995</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="20">
         <v>787977.23</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20">
         <v>96039.47</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <v>143630.82999999999</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="20">
         <v>100759.3</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="20">
         <v>174036.41</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="20">
         <v>92035.63</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24">
+      <c r="J8" s="20"/>
+      <c r="K8" s="20">
         <v>1.5937E-2</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="20">
         <v>2.1544000000000001E-2</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="20">
         <v>1.9219E-2</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>5.4536000000000001E-2</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="20">
         <v>6.8814E-2</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="20">
         <v>5.4397000000000001E-2</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="20">
         <v>6.8695000000000006E-2</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="20">
         <v>5.4631529999999998E-2</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24">
+      <c r="T8" s="20"/>
+      <c r="U8" s="20">
         <v>4400.22</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="20">
         <v>4155.8900000000003</v>
       </c>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24">
+      <c r="W8" s="20"/>
+      <c r="X8" s="20">
         <v>19436118</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="Y8" s="20">
         <v>19438069</v>
       </c>
     </row>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCA58D-DBE0-4351-956D-8D617872F662}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,30 +1154,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>12</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="16">
         <v>13</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="20">
+      <c r="A2" s="28">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <v>3</v>
       </c>
       <c r="E2">
@@ -1191,14 +1191,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="27">
+      <c r="A3" s="28"/>
+      <c r="B3" s="23">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3">
@@ -1212,11 +1212,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="28"/>
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1230,30 +1230,27 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="13">
-        <f>+(E2*$D$2 + E3*$D$3 +E4*$D$4) / SUM($D$2:$D$4)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="F5" s="13">
-        <f>+(F2*$D$2 + F3*$D$3 +F4*$D$4) / SUM($D$2:$D$4)</f>
         <v>4.5</v>
       </c>
       <c r="G5" s="13">
-        <f>+(G2*$D$2 + G3*$D$3 +G4*$D$4) / SUM($D$2:$D$4)</f>
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>3</v>
       </c>
       <c r="E6">
@@ -1267,14 +1264,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="27">
+      <c r="A7" s="28"/>
+      <c r="B7" s="23">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7">
@@ -1288,11 +1285,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="28"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8">
@@ -1306,30 +1303,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="13">
-        <f>+(E6*$D$2 + E7*$D$3 +E8*$D$4) / SUM($D$2:$D$4)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" ref="F9:G9" si="0">+(F6*$D$2 + F7*$D$3 +F8*$D$4) / SUM($D$2:$D$4)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>3</v>
       </c>
       <c r="E10">
@@ -1343,16 +1337,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="23">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11">
@@ -1366,11 +1360,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="28"/>
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12">
@@ -1384,30 +1378,27 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="13">
-        <f t="shared" ref="E13:G13" si="1">+(E10*$D$2 + E11*$D$3 +E12*$D$4) / SUM($D$2:$D$4)</f>
         <v>7.5</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>3</v>
       </c>
       <c r="E14">
@@ -1421,16 +1412,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="23">
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>1</v>
       </c>
       <c r="E15">
@@ -1444,11 +1435,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="28"/>
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16">
@@ -1462,30 +1453,27 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="13">
-        <f t="shared" ref="E17:G17" si="2">+(E14*$D$2 + E15*$D$3 +E16*$D$4) / SUM($D$2:$D$4)</f>
         <v>6.2</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>3</v>
       </c>
       <c r="E18">
@@ -1499,14 +1487,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="27">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23">
         <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19">
@@ -1520,11 +1508,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
+      <c r="A20" s="28"/>
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20">
@@ -1538,30 +1526,27 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="13">
-        <f t="shared" ref="E21" si="3">+(E18*$D$2 + E19*$D$3 +E20*$D$4) / SUM($D$2:$D$4)</f>
         <v>8.4</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" ref="F21" si="4">+(F18*$D$2 + F19*$D$3 +F20*$D$4) / SUM($D$2:$D$4)</f>
         <v>8.6</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" ref="G21" si="5">+(G18*$D$2 + G19*$D$3 +G20*$D$4) / SUM($D$2:$D$4)</f>
         <v>4.8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>3</v>
       </c>
       <c r="E22">
@@ -1575,14 +1560,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27">
+      <c r="A23" s="28"/>
+      <c r="B23" s="23">
         <v>1.5</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <v>1</v>
       </c>
       <c r="E23">
@@ -1596,11 +1581,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
+      <c r="A24" s="28"/>
       <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>1</v>
       </c>
       <c r="E24">
@@ -1614,30 +1599,27 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="13">
-        <f t="shared" ref="E25" si="6">+(E22*$D$2 + E23*$D$3 +E24*$D$4) / SUM($D$2:$D$4)</f>
         <v>7.6</v>
       </c>
       <c r="F25" s="13">
-        <f t="shared" ref="F25" si="7">+(F22*$D$2 + F23*$D$3 +F24*$D$4) / SUM($D$2:$D$4)</f>
         <v>7.6</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" ref="G25" si="8">+(G22*$D$2 + G23*$D$3 +G24*$D$4) / SUM($D$2:$D$4)</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="20">
+      <c r="A26" s="28">
         <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="17">
         <v>3</v>
       </c>
       <c r="E26">
@@ -1651,14 +1633,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
-      <c r="B27" s="27">
+      <c r="A27" s="28"/>
+      <c r="B27" s="23">
         <v>2.5</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="17">
         <v>1</v>
       </c>
       <c r="E27">
@@ -1672,11 +1654,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
+      <c r="A28" s="28"/>
       <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>1</v>
       </c>
       <c r="E28">
@@ -1690,54 +1672,44 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="21">
-        <f>+SUM(B3,B7,B11,B15,B19,B23,B27)</f>
+      <c r="B29" s="17">
         <v>10</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="13">
-        <f t="shared" ref="E29" si="9">+(E26*$D$2 + E27*$D$3 +E28*$D$4) / SUM($D$2:$D$4)</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="F29" s="13">
-        <f t="shared" ref="F29" si="10">+(F26*$D$2 + F27*$D$3 +F28*$D$4) / SUM($D$2:$D$4)</f>
         <v>4.2</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" ref="G29" si="11">+(G26*$D$2 + G27*$D$3 +G28*$D$4) / SUM($D$2:$D$4)</f>
         <v>7.8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="24">
-        <f>+(E5*$B$3+E9*$B$7+E13*$B$11+E17*$B$15+E21*$B$19+E25*$B$23+E29*$B$27) /$B$29</f>
+      <c r="E32" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F32" s="24">
-        <f t="shared" ref="F32:G32" si="12">+(F5*$B$3+F9*$B$7+F13*$B$11+F17*$B$15+F21*$B$19+F25*$B$23+F29*$B$27) /$B$29</f>
+      <c r="F32" s="20">
         <v>5.96</v>
       </c>
-      <c r="G32" s="24">
-        <f t="shared" si="12"/>
+      <c r="G32" s="20">
         <v>6.9599999999999991</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E33" s="22">
-        <f>+E32/2</f>
+      <c r="E33" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F33" s="22">
-        <f t="shared" ref="F33:G33" si="13">+F32/2</f>
+      <c r="F33" s="18">
         <v>2.98</v>
       </c>
-      <c r="G33" s="22">
-        <f t="shared" si="13"/>
+      <c r="G33" s="18">
         <v>3.4799999999999995</v>
       </c>
     </row>
